--- a/ChillToeic/wwwroot/Uploads/Đề thi mẫu đúng form.xlsx
+++ b/ChillToeic/wwwroot/Uploads/Đề thi mẫu đúng form.xlsx
@@ -64,20 +64,28 @@
     <t>Part 7</t>
   </si>
   <si>
-    <t>OK</t>
+    <t>ok</t>
   </si>
   <si>
-    <t>ok</t>
+    <t>https://drive.google.com/file/d/1S0EFgBP0EXKeKAwZF6gVlwH5_aJMvMEu/view?usp=drive_link</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -100,13 +108,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -408,8 +419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="K187" sqref="K187"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -422,8 +433,8 @@
       <c r="A1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>16</v>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -459,23 +470,23 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -485,23 +496,23 @@
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -515,19 +526,19 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -541,19 +552,19 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -567,19 +578,19 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -593,19 +604,19 @@
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -619,22 +630,22 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -645,22 +656,22 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -671,22 +682,22 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -697,22 +708,22 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -723,22 +734,22 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -749,22 +760,22 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -775,22 +786,22 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -801,22 +812,22 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -827,22 +838,22 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -853,22 +864,22 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -879,22 +890,22 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -905,22 +916,22 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -931,22 +942,22 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -957,22 +968,22 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -983,22 +994,22 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -1009,22 +1020,22 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -1035,22 +1046,22 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -1061,22 +1072,22 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -1087,22 +1098,22 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -1113,22 +1124,22 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -1139,22 +1150,22 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -1165,22 +1176,22 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -1191,22 +1202,22 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -1217,22 +1228,22 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -1243,22 +1254,22 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -1272,22 +1283,22 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -1298,22 +1309,22 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -1324,22 +1335,22 @@
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -1350,22 +1361,22 @@
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -1376,22 +1387,22 @@
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -1402,22 +1413,22 @@
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -1428,22 +1439,22 @@
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -1454,22 +1465,22 @@
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -1480,22 +1491,22 @@
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -1506,22 +1517,22 @@
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -1532,22 +1543,22 @@
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -1558,22 +1569,22 @@
         <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -1584,22 +1595,22 @@
         <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -1610,22 +1621,22 @@
         <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -1636,22 +1647,22 @@
         <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -1662,22 +1673,22 @@
         <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -1688,22 +1699,22 @@
         <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -1714,22 +1725,22 @@
         <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -1740,22 +1751,22 @@
         <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -1766,22 +1777,22 @@
         <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -1792,22 +1803,22 @@
         <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I54">
         <v>1</v>
@@ -1818,22 +1829,22 @@
         <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I55">
         <v>1</v>
@@ -1844,22 +1855,22 @@
         <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I56">
         <v>1</v>
@@ -1870,22 +1881,22 @@
         <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I57">
         <v>1</v>
@@ -1896,22 +1907,22 @@
         <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I58">
         <v>1</v>
@@ -1922,22 +1933,22 @@
         <v>57</v>
       </c>
       <c r="C59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -1948,22 +1959,22 @@
         <v>58</v>
       </c>
       <c r="C60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I60">
         <v>1</v>
@@ -1974,22 +1985,22 @@
         <v>59</v>
       </c>
       <c r="C61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -2000,22 +2011,22 @@
         <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I62">
         <v>1</v>
@@ -2026,22 +2037,22 @@
         <v>61</v>
       </c>
       <c r="C63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I63">
         <v>1</v>
@@ -2052,22 +2063,22 @@
         <v>62</v>
       </c>
       <c r="C64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -2078,22 +2089,22 @@
         <v>63</v>
       </c>
       <c r="C65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I65">
         <v>1</v>
@@ -2104,22 +2115,22 @@
         <v>64</v>
       </c>
       <c r="C66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I66">
         <v>1</v>
@@ -2130,22 +2141,22 @@
         <v>65</v>
       </c>
       <c r="C67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I67">
         <v>1</v>
@@ -2156,22 +2167,22 @@
         <v>66</v>
       </c>
       <c r="C68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I68">
         <v>1</v>
@@ -2182,22 +2193,22 @@
         <v>67</v>
       </c>
       <c r="C69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I69">
         <v>1</v>
@@ -2208,22 +2219,22 @@
         <v>68</v>
       </c>
       <c r="C70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I70">
         <v>1</v>
@@ -2234,22 +2245,22 @@
         <v>69</v>
       </c>
       <c r="C71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I71">
         <v>1</v>
@@ -2260,22 +2271,22 @@
         <v>70</v>
       </c>
       <c r="C72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I72">
         <v>1</v>
@@ -2289,22 +2300,22 @@
         <v>71</v>
       </c>
       <c r="C73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I73">
         <v>1</v>
@@ -2315,22 +2326,22 @@
         <v>72</v>
       </c>
       <c r="C74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I74">
         <v>1</v>
@@ -2341,22 +2352,22 @@
         <v>73</v>
       </c>
       <c r="C75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I75">
         <v>1</v>
@@ -2367,22 +2378,22 @@
         <v>74</v>
       </c>
       <c r="C76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I76">
         <v>1</v>
@@ -2393,22 +2404,22 @@
         <v>75</v>
       </c>
       <c r="C77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I77">
         <v>1</v>
@@ -2419,22 +2430,22 @@
         <v>76</v>
       </c>
       <c r="C78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I78">
         <v>1</v>
@@ -2445,22 +2456,22 @@
         <v>77</v>
       </c>
       <c r="C79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -2471,22 +2482,22 @@
         <v>78</v>
       </c>
       <c r="C80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -2497,22 +2508,22 @@
         <v>79</v>
       </c>
       <c r="C81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I81">
         <v>1</v>
@@ -2523,22 +2534,22 @@
         <v>80</v>
       </c>
       <c r="C82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I82">
         <v>1</v>
@@ -2549,22 +2560,22 @@
         <v>81</v>
       </c>
       <c r="C83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I83">
         <v>1</v>
@@ -2575,22 +2586,22 @@
         <v>82</v>
       </c>
       <c r="C84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I84">
         <v>1</v>
@@ -2601,22 +2612,22 @@
         <v>83</v>
       </c>
       <c r="C85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I85">
         <v>1</v>
@@ -2627,22 +2638,22 @@
         <v>84</v>
       </c>
       <c r="C86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I86">
         <v>1</v>
@@ -2653,22 +2664,22 @@
         <v>85</v>
       </c>
       <c r="C87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I87">
         <v>1</v>
@@ -2679,22 +2690,22 @@
         <v>86</v>
       </c>
       <c r="C88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I88">
         <v>1</v>
@@ -2705,22 +2716,22 @@
         <v>87</v>
       </c>
       <c r="C89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I89">
         <v>1</v>
@@ -2731,22 +2742,22 @@
         <v>88</v>
       </c>
       <c r="C90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I90">
         <v>1</v>
@@ -2757,22 +2768,22 @@
         <v>89</v>
       </c>
       <c r="C91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I91">
         <v>1</v>
@@ -2783,22 +2794,22 @@
         <v>90</v>
       </c>
       <c r="C92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -2809,22 +2820,22 @@
         <v>91</v>
       </c>
       <c r="C93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I93">
         <v>1</v>
@@ -2835,22 +2846,22 @@
         <v>92</v>
       </c>
       <c r="C94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I94">
         <v>1</v>
@@ -2861,22 +2872,22 @@
         <v>93</v>
       </c>
       <c r="C95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I95">
         <v>1</v>
@@ -2887,22 +2898,22 @@
         <v>94</v>
       </c>
       <c r="C96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I96">
         <v>1</v>
@@ -2913,22 +2924,22 @@
         <v>95</v>
       </c>
       <c r="C97" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D97" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E97" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F97" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G97" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H97" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I97">
         <v>1</v>
@@ -2939,22 +2950,22 @@
         <v>96</v>
       </c>
       <c r="C98" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D98" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E98" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F98" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G98" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H98" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I98">
         <v>1</v>
@@ -2965,22 +2976,22 @@
         <v>97</v>
       </c>
       <c r="C99" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D99" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E99" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F99" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G99" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H99" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I99">
         <v>1</v>
@@ -2991,22 +3002,22 @@
         <v>98</v>
       </c>
       <c r="C100" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D100" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E100" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F100" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G100" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H100" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I100">
         <v>1</v>
@@ -3017,22 +3028,22 @@
         <v>99</v>
       </c>
       <c r="C101" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D101" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E101" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F101" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G101" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H101" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I101">
         <v>1</v>
@@ -3043,22 +3054,22 @@
         <v>100</v>
       </c>
       <c r="C102" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D102" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E102" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F102" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G102" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H102" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I102">
         <v>1</v>
@@ -3072,22 +3083,22 @@
         <v>101</v>
       </c>
       <c r="C103" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D103" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E103" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F103" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G103" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H103" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I103">
         <v>1</v>
@@ -3098,22 +3109,22 @@
         <v>102</v>
       </c>
       <c r="C104" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D104" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E104" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F104" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G104" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H104" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I104">
         <v>1</v>
@@ -3124,22 +3135,22 @@
         <v>103</v>
       </c>
       <c r="C105" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D105" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E105" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F105" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G105" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H105" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I105">
         <v>1</v>
@@ -3150,22 +3161,22 @@
         <v>104</v>
       </c>
       <c r="C106" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D106" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E106" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F106" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G106" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H106" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I106">
         <v>1</v>
@@ -3176,22 +3187,22 @@
         <v>105</v>
       </c>
       <c r="C107" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D107" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E107" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F107" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G107" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H107" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I107">
         <v>1</v>
@@ -3202,22 +3213,22 @@
         <v>106</v>
       </c>
       <c r="C108" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D108" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E108" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F108" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G108" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H108" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I108">
         <v>1</v>
@@ -3228,22 +3239,22 @@
         <v>107</v>
       </c>
       <c r="C109" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D109" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E109" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F109" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G109" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H109" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I109">
         <v>1</v>
@@ -3254,22 +3265,22 @@
         <v>108</v>
       </c>
       <c r="C110" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D110" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E110" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F110" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G110" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H110" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I110">
         <v>1</v>
@@ -3280,22 +3291,22 @@
         <v>109</v>
       </c>
       <c r="C111" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D111" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E111" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F111" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G111" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H111" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I111">
         <v>1</v>
@@ -3306,22 +3317,22 @@
         <v>110</v>
       </c>
       <c r="C112" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D112" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E112" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F112" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G112" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H112" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I112">
         <v>1</v>
@@ -3332,22 +3343,22 @@
         <v>111</v>
       </c>
       <c r="C113" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D113" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E113" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F113" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G113" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H113" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I113">
         <v>1</v>
@@ -3358,22 +3369,22 @@
         <v>112</v>
       </c>
       <c r="C114" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D114" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E114" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F114" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G114" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H114" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I114">
         <v>1</v>
@@ -3384,22 +3395,22 @@
         <v>113</v>
       </c>
       <c r="C115" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D115" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E115" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F115" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G115" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H115" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I115">
         <v>1</v>
@@ -3410,22 +3421,22 @@
         <v>114</v>
       </c>
       <c r="C116" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D116" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E116" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F116" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G116" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H116" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I116">
         <v>1</v>
@@ -3436,22 +3447,22 @@
         <v>115</v>
       </c>
       <c r="C117" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D117" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E117" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F117" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G117" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H117" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I117">
         <v>1</v>
@@ -3462,22 +3473,22 @@
         <v>116</v>
       </c>
       <c r="C118" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D118" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E118" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F118" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G118" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H118" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I118">
         <v>1</v>
@@ -3488,22 +3499,22 @@
         <v>117</v>
       </c>
       <c r="C119" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D119" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E119" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F119" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G119" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H119" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I119">
         <v>1</v>
@@ -3514,22 +3525,22 @@
         <v>118</v>
       </c>
       <c r="C120" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D120" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E120" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F120" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G120" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H120" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I120">
         <v>1</v>
@@ -3540,22 +3551,22 @@
         <v>119</v>
       </c>
       <c r="C121" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D121" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E121" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F121" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G121" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H121" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I121">
         <v>1</v>
@@ -3566,22 +3577,22 @@
         <v>120</v>
       </c>
       <c r="C122" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D122" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E122" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F122" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G122" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H122" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I122">
         <v>1</v>
@@ -3592,22 +3603,22 @@
         <v>121</v>
       </c>
       <c r="C123" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D123" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E123" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F123" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G123" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H123" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I123">
         <v>1</v>
@@ -3618,22 +3629,22 @@
         <v>122</v>
       </c>
       <c r="C124" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D124" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E124" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F124" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G124" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H124" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I124">
         <v>1</v>
@@ -3644,22 +3655,22 @@
         <v>123</v>
       </c>
       <c r="C125" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D125" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E125" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F125" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G125" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H125" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I125">
         <v>1</v>
@@ -3670,22 +3681,22 @@
         <v>124</v>
       </c>
       <c r="C126" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D126" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E126" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F126" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G126" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H126" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I126">
         <v>1</v>
@@ -3696,22 +3707,22 @@
         <v>125</v>
       </c>
       <c r="C127" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D127" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E127" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F127" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G127" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H127" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I127">
         <v>1</v>
@@ -3722,22 +3733,22 @@
         <v>126</v>
       </c>
       <c r="C128" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D128" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E128" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F128" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G128" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H128" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I128">
         <v>1</v>
@@ -3748,22 +3759,22 @@
         <v>127</v>
       </c>
       <c r="C129" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D129" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E129" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F129" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G129" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H129" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I129">
         <v>1</v>
@@ -3774,22 +3785,22 @@
         <v>128</v>
       </c>
       <c r="C130" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D130" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E130" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F130" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G130" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H130" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I130">
         <v>1</v>
@@ -3800,22 +3811,22 @@
         <v>129</v>
       </c>
       <c r="C131" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D131" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E131" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F131" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G131" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H131" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I131">
         <v>1</v>
@@ -3826,22 +3837,22 @@
         <v>130</v>
       </c>
       <c r="C132" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D132" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E132" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F132" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G132" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H132" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I132">
         <v>1</v>
@@ -3855,22 +3866,22 @@
         <v>131</v>
       </c>
       <c r="C133" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D133" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E133" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F133" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G133" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H133" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I133">
         <v>1</v>
@@ -3881,22 +3892,22 @@
         <v>132</v>
       </c>
       <c r="C134" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D134" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E134" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F134" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G134" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H134" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I134">
         <v>1</v>
@@ -3907,22 +3918,22 @@
         <v>133</v>
       </c>
       <c r="C135" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D135" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E135" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F135" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G135" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H135" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I135">
         <v>1</v>
@@ -3933,22 +3944,22 @@
         <v>134</v>
       </c>
       <c r="C136" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D136" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E136" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F136" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G136" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H136" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I136">
         <v>1</v>
@@ -3959,22 +3970,22 @@
         <v>135</v>
       </c>
       <c r="C137" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D137" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E137" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F137" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G137" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H137" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I137">
         <v>1</v>
@@ -3985,22 +3996,22 @@
         <v>136</v>
       </c>
       <c r="C138" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D138" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E138" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F138" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G138" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H138" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I138">
         <v>1</v>
@@ -4011,22 +4022,22 @@
         <v>137</v>
       </c>
       <c r="C139" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D139" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E139" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F139" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G139" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H139" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I139">
         <v>1</v>
@@ -4037,22 +4048,22 @@
         <v>138</v>
       </c>
       <c r="C140" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D140" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E140" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F140" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G140" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H140" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I140">
         <v>1</v>
@@ -4063,22 +4074,22 @@
         <v>139</v>
       </c>
       <c r="C141" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D141" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E141" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F141" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G141" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H141" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I141">
         <v>1</v>
@@ -4089,22 +4100,22 @@
         <v>140</v>
       </c>
       <c r="C142" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D142" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E142" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F142" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G142" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H142" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I142">
         <v>1</v>
@@ -4115,22 +4126,22 @@
         <v>141</v>
       </c>
       <c r="C143" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D143" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E143" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F143" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G143" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H143" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I143">
         <v>1</v>
@@ -4141,22 +4152,22 @@
         <v>142</v>
       </c>
       <c r="C144" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D144" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E144" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F144" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G144" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H144" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I144">
         <v>1</v>
@@ -4167,22 +4178,22 @@
         <v>143</v>
       </c>
       <c r="C145" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D145" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E145" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F145" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G145" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H145" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I145">
         <v>1</v>
@@ -4193,22 +4204,22 @@
         <v>144</v>
       </c>
       <c r="C146" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D146" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E146" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F146" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G146" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H146" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I146">
         <v>1</v>
@@ -4219,22 +4230,22 @@
         <v>145</v>
       </c>
       <c r="C147" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D147" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E147" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F147" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G147" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H147" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I147">
         <v>1</v>
@@ -4245,22 +4256,22 @@
         <v>146</v>
       </c>
       <c r="C148" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D148" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E148" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F148" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G148" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H148" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I148">
         <v>1</v>
@@ -4274,22 +4285,22 @@
         <v>147</v>
       </c>
       <c r="C149" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D149" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E149" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F149" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G149" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H149" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I149">
         <v>1</v>
@@ -4300,22 +4311,22 @@
         <v>148</v>
       </c>
       <c r="C150" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D150" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E150" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F150" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G150" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H150" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I150">
         <v>1</v>
@@ -4326,22 +4337,22 @@
         <v>149</v>
       </c>
       <c r="C151" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D151" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E151" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F151" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G151" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H151" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I151">
         <v>1</v>
@@ -4352,22 +4363,22 @@
         <v>150</v>
       </c>
       <c r="C152" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D152" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E152" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F152" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G152" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H152" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I152">
         <v>1</v>
@@ -4378,22 +4389,22 @@
         <v>151</v>
       </c>
       <c r="C153" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D153" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E153" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F153" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G153" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H153" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I153">
         <v>1</v>
@@ -4404,22 +4415,22 @@
         <v>152</v>
       </c>
       <c r="C154" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D154" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E154" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F154" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G154" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H154" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I154">
         <v>1</v>
@@ -4430,22 +4441,22 @@
         <v>153</v>
       </c>
       <c r="C155" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D155" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E155" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F155" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G155" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H155" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I155">
         <v>1</v>
@@ -4456,22 +4467,22 @@
         <v>154</v>
       </c>
       <c r="C156" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D156" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E156" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F156" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G156" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H156" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I156">
         <v>1</v>
@@ -4482,22 +4493,22 @@
         <v>155</v>
       </c>
       <c r="C157" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D157" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E157" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F157" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G157" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H157" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I157">
         <v>1</v>
@@ -4508,22 +4519,22 @@
         <v>156</v>
       </c>
       <c r="C158" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D158" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E158" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F158" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G158" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H158" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I158">
         <v>1</v>
@@ -4534,22 +4545,22 @@
         <v>157</v>
       </c>
       <c r="C159" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D159" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E159" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F159" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G159" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H159" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I159">
         <v>1</v>
@@ -4560,22 +4571,22 @@
         <v>158</v>
       </c>
       <c r="C160" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D160" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E160" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F160" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G160" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H160" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I160">
         <v>1</v>
@@ -4586,22 +4597,22 @@
         <v>159</v>
       </c>
       <c r="C161" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D161" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E161" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F161" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G161" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H161" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I161">
         <v>1</v>
@@ -4612,22 +4623,22 @@
         <v>160</v>
       </c>
       <c r="C162" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D162" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E162" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F162" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G162" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H162" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I162">
         <v>1</v>
@@ -4638,22 +4649,22 @@
         <v>161</v>
       </c>
       <c r="C163" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D163" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E163" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F163" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G163" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H163" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I163">
         <v>1</v>
@@ -4664,22 +4675,22 @@
         <v>162</v>
       </c>
       <c r="C164" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D164" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E164" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F164" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G164" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H164" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I164">
         <v>1</v>
@@ -4690,22 +4701,22 @@
         <v>163</v>
       </c>
       <c r="C165" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D165" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E165" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F165" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G165" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H165" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I165">
         <v>1</v>
@@ -4716,22 +4727,22 @@
         <v>164</v>
       </c>
       <c r="C166" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D166" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E166" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F166" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G166" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H166" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I166">
         <v>1</v>
@@ -4742,22 +4753,22 @@
         <v>165</v>
       </c>
       <c r="C167" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D167" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E167" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F167" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G167" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H167" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I167">
         <v>1</v>
@@ -4768,22 +4779,22 @@
         <v>166</v>
       </c>
       <c r="C168" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D168" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E168" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F168" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G168" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H168" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I168">
         <v>1</v>
@@ -4794,22 +4805,22 @@
         <v>167</v>
       </c>
       <c r="C169" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D169" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E169" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F169" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G169" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H169" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I169">
         <v>1</v>
@@ -4820,22 +4831,22 @@
         <v>168</v>
       </c>
       <c r="C170" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D170" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E170" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F170" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G170" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H170" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I170">
         <v>1</v>
@@ -4846,22 +4857,22 @@
         <v>169</v>
       </c>
       <c r="C171" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D171" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E171" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F171" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G171" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H171" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I171">
         <v>1</v>
@@ -4872,22 +4883,22 @@
         <v>170</v>
       </c>
       <c r="C172" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D172" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E172" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F172" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G172" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H172" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I172">
         <v>1</v>
@@ -4898,22 +4909,22 @@
         <v>171</v>
       </c>
       <c r="C173" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D173" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E173" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F173" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G173" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H173" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I173">
         <v>1</v>
@@ -4924,22 +4935,22 @@
         <v>172</v>
       </c>
       <c r="C174" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D174" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E174" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F174" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G174" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H174" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I174">
         <v>1</v>
@@ -4950,22 +4961,22 @@
         <v>173</v>
       </c>
       <c r="C175" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D175" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E175" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F175" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G175" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H175" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I175">
         <v>1</v>
@@ -4976,22 +4987,22 @@
         <v>174</v>
       </c>
       <c r="C176" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D176" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E176" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F176" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G176" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H176" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I176">
         <v>1</v>
@@ -5002,22 +5013,22 @@
         <v>175</v>
       </c>
       <c r="C177" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D177" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E177" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F177" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G177" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H177" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I177">
         <v>1</v>
@@ -5028,22 +5039,22 @@
         <v>176</v>
       </c>
       <c r="C178" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D178" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E178" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F178" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G178" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H178" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I178">
         <v>1</v>
@@ -5054,22 +5065,22 @@
         <v>177</v>
       </c>
       <c r="C179" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D179" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E179" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F179" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G179" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H179" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I179">
         <v>1</v>
@@ -5080,22 +5091,22 @@
         <v>178</v>
       </c>
       <c r="C180" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D180" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E180" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F180" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G180" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H180" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I180">
         <v>1</v>
@@ -5106,22 +5117,22 @@
         <v>179</v>
       </c>
       <c r="C181" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D181" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E181" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F181" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G181" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H181" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I181">
         <v>1</v>
@@ -5132,22 +5143,22 @@
         <v>180</v>
       </c>
       <c r="C182" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D182" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E182" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F182" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G182" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H182" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I182">
         <v>1</v>
@@ -5158,22 +5169,22 @@
         <v>181</v>
       </c>
       <c r="C183" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D183" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E183" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F183" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G183" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H183" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I183">
         <v>1</v>
@@ -5184,22 +5195,22 @@
         <v>182</v>
       </c>
       <c r="C184" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D184" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E184" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F184" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G184" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H184" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I184">
         <v>1</v>
@@ -5210,22 +5221,22 @@
         <v>183</v>
       </c>
       <c r="C185" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D185" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E185" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F185" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G185" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H185" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I185">
         <v>1</v>
@@ -5236,22 +5247,22 @@
         <v>184</v>
       </c>
       <c r="C186" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D186" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E186" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F186" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G186" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H186" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I186">
         <v>1</v>
@@ -5262,22 +5273,22 @@
         <v>185</v>
       </c>
       <c r="C187" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D187" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E187" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F187" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G187" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H187" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I187">
         <v>1</v>
@@ -5288,22 +5299,22 @@
         <v>186</v>
       </c>
       <c r="C188" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D188" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E188" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F188" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G188" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H188" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I188">
         <v>1</v>
@@ -5314,22 +5325,22 @@
         <v>187</v>
       </c>
       <c r="C189" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D189" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E189" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F189" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G189" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H189" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I189">
         <v>1</v>
@@ -5340,22 +5351,22 @@
         <v>188</v>
       </c>
       <c r="C190" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D190" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E190" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F190" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G190" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H190" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I190">
         <v>1</v>
@@ -5366,22 +5377,22 @@
         <v>189</v>
       </c>
       <c r="C191" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D191" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E191" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F191" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G191" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H191" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I191">
         <v>1</v>
@@ -5392,22 +5403,22 @@
         <v>190</v>
       </c>
       <c r="C192" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D192" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E192" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F192" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G192" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H192" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I192">
         <v>1</v>
@@ -5418,22 +5429,22 @@
         <v>191</v>
       </c>
       <c r="C193" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D193" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E193" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F193" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G193" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H193" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I193">
         <v>1</v>
@@ -5444,22 +5455,22 @@
         <v>192</v>
       </c>
       <c r="C194" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D194" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E194" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F194" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G194" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H194" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I194">
         <v>1</v>
@@ -5470,22 +5481,22 @@
         <v>193</v>
       </c>
       <c r="C195" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D195" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E195" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F195" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G195" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H195" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I195">
         <v>1</v>
@@ -5496,22 +5507,22 @@
         <v>194</v>
       </c>
       <c r="C196" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D196" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E196" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F196" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G196" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H196" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I196">
         <v>1</v>
@@ -5522,22 +5533,22 @@
         <v>195</v>
       </c>
       <c r="C197" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D197" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E197" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F197" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G197" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H197" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I197">
         <v>1</v>
@@ -5548,22 +5559,22 @@
         <v>196</v>
       </c>
       <c r="C198" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D198" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E198" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F198" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G198" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H198" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I198">
         <v>1</v>
@@ -5574,22 +5585,22 @@
         <v>197</v>
       </c>
       <c r="C199" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D199" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E199" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F199" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G199" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H199" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I199">
         <v>1</v>
@@ -5600,22 +5611,22 @@
         <v>198</v>
       </c>
       <c r="C200" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D200" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E200" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F200" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G200" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H200" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I200">
         <v>1</v>
@@ -5626,22 +5637,22 @@
         <v>199</v>
       </c>
       <c r="C201" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D201" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E201" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F201" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G201" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H201" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I201">
         <v>1</v>
@@ -5652,28 +5663,33 @@
         <v>200</v>
       </c>
       <c r="C202" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D202" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E202" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F202" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G202" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H202" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I202">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>